--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Modelo</t>
   </si>
@@ -34,34 +34,37 @@
     <t>MCPS</t>
   </si>
   <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>Sieve Bootstrap</t>
   </si>
   <si>
-    <t>AV-MCPS</t>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
   </si>
   <si>
     <t>DeepAR</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
-  </si>
-  <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
     <t>LSPMW</t>
   </si>
   <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>6/10</t>
+    <t>3/10</t>
   </si>
   <si>
     <t>2/10</t>
+  </si>
+  <si>
+    <t>1/10</t>
   </si>
   <si>
     <t>0/10</t>
@@ -453,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>153.6</v>
+        <v>76.8</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -476,7 +479,7 @@
         <v>200</v>
       </c>
       <c r="E3">
-        <v>0.6013424897804682</v>
+        <v>0.6292401918857261</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -484,16 +487,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>51.2</v>
+        <v>25.6</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4">
-        <v>0.6292401918857261</v>
+        <v>0.6013424897804682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -501,16 +504,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>0.5612074862105157</v>
+        <v>0.6666371841897598</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -518,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -527,7 +530,7 @@
         <v>60</v>
       </c>
       <c r="E6">
-        <v>0.6666371841897598</v>
+        <v>0.6094402779078255</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -535,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -552,16 +555,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>0.6094402779078255</v>
+        <v>0.5612074862105157</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -569,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -586,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
